--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-14.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-14.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,11 +422,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Input component</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Rendered HTML element</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>InputCheckbox</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>InputDate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;input type="date"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>InputNumber</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;input type="number"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>InputSelect</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;select&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>InputText</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;input&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>InputTextArea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;textarea&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
